--- a/demo/data/sample.xlsx
+++ b/demo/data/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/uparl/tei_excel_tools/demo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708E9F3-95AA-D041-9B1D-B34EDD7032DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC93B0C-9E5F-994C-8F4D-5FBD4AE3D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>subtype</t>
     <phoneticPr fontId="2"/>
@@ -121,19 +121,11 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>いつれの御時にか女御更衣あまたさふらひ給けるなかにいとやむことなきゝは</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>page_22</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>page_22-b-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>いつれの御時にか女御更衣あまたさふらひたまふなかにいとやむことなきゝは</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -158,12 +150,185 @@
     <t>https://dl.ndl.go.jp/api/iiif/3437686/R0000022/1044,895,82,424/full/0/default.jpg</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>にはあらぬかすくれて時めき給ありけりはしめより我はと思あかり給へる御方</t>
+  </si>
+  <si>
+    <t>〱めさましきものにおとしめそねみ給おなしほとそれより下らうの更衣たち</t>
+  </si>
+  <si>
+    <t>はましてやすからすあさゆふの宮つかへにつけても人の心をのみうこかしうら</t>
+  </si>
+  <si>
+    <t>みをおふつもりにやありけむいとあつしくなりゆきもの心ほそけにさとかちな</t>
+  </si>
+  <si>
+    <t>るをいよ〱あかすあはれなる物におもほして人のそしりをもえはゝからせ給</t>
+  </si>
+  <si>
+    <t>はす世のためしにもなりぬへき御もてなし也かんたちめうへ人なともあいなく</t>
+  </si>
+  <si>
+    <t>めをそはめつゝいとまはゆき人の御おほえなりもろこしにもかゝることのおこ</t>
+  </si>
+  <si>
+    <t>りにこそ世もみたれあしかりけれとやう〱あめのしたにもあちきなう人のも</t>
+  </si>
+  <si>
+    <t>てなやみくさになりて楊貴妃のためしもひきいてつへくなりゆくにいとはした</t>
+  </si>
+  <si>
+    <t>なきことおほかれとかたしけなき御心はへのたくひなきをたのみにてましらひ</t>
+  </si>
+  <si>
+    <t>給ちゝの大納言はなくなりてはゝ北の方なんいにしへの人のよしあるにておや</t>
+  </si>
+  <si>
+    <t>うちくしさしあたりて世のおほえはなやかなる御方〱にもいたうおとらすな</t>
+  </si>
+  <si>
+    <t>にことのきしきをももてなしたまひけれととりたてゝはか〱しきうしろみし</t>
+  </si>
+  <si>
+    <t>なけれは事ある時はなをより所なく心ほそけ也さきの世にも御ちきりやふかか</t>
+  </si>
+  <si>
+    <t>りけむ世になくきよらなるたまのをのこみこさへうまれ給ひぬいつしかと心も</t>
+  </si>
+  <si>
+    <t>となからせ給ていそきまいらせて御覧するにめつらかなるちこの御かたちなり</t>
+  </si>
+  <si>
+    <t>一のみこは右大臣の女御の御はらにてよせをもくうたかひなきまうけの君と世</t>
+  </si>
+  <si>
+    <t>にもてかしつきゝこゆれとこの御にほひにはならひ給へくもあらさりけれはお</t>
+  </si>
+  <si>
+    <t>ほかたのやむことなき御おもひにてこの君をはわたくし物におもほしかしつき</t>
+  </si>
+  <si>
+    <t>page_22-b-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>page_22-b-3</t>
+  </si>
+  <si>
+    <t>page_22-b-4</t>
+  </si>
+  <si>
+    <t>page_22-b-5</t>
+  </si>
+  <si>
+    <t>page_22-b-6</t>
+  </si>
+  <si>
+    <t>page_22-b-7</t>
+  </si>
+  <si>
+    <t>page_22-b-8</t>
+  </si>
+  <si>
+    <t>page_22-b-9</t>
+  </si>
+  <si>
+    <t>page_22-b-10</t>
+  </si>
+  <si>
+    <t>page_22-b-11</t>
+  </si>
+  <si>
+    <t>page_22-b-12</t>
+  </si>
+  <si>
+    <t>page_22-b-13</t>
+  </si>
+  <si>
+    <t>page_22-b-14</t>
+  </si>
+  <si>
+    <t>page_23</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>page_23-a-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>page_23-a-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>page_23-a-3</t>
+  </si>
+  <si>
+    <t>page_23-a-4</t>
+  </si>
+  <si>
+    <t>page_23-a-5</t>
+  </si>
+  <si>
+    <t>page_23-a-6</t>
+  </si>
+  <si>
+    <r>
+      <t>いつれの御時にか女御更衣あまたさふらひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまふ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なかにいとやむことなきゝは</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>いつれの御時にか女御更衣あまたさふらひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>給ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なかにいとやむことなきゝは</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,36 +392,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -274,42 +437,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -533,7 +690,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -543,44 +700,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -595,10 +752,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -610,31 +767,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -652,8 +1075,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -662,61 +1084,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="107" spans="5:5" ht="14">
-      <c r="E107" s="6"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" spans="5:5" ht="42" customHeight="1"/>
     <row r="153" ht="53.25" customHeight="1"/>
